--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1700.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1700.xlsx
@@ -354,7 +354,7 @@
         <v>0.6194009470188478</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.712919454934957</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1700.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1700.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.410871758302224</v>
+        <v>0.5865408778190613</v>
       </c>
       <c r="B1">
-        <v>0.6194009470188478</v>
+        <v>2.075120449066162</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>2.712919454934957</v>
+        <v>1.216576457023621</v>
       </c>
       <c r="E1">
-        <v>1.834401194269001</v>
+        <v>1.282441377639771</v>
       </c>
     </row>
   </sheetData>
